--- a/Table/Table_xls/NPC-复合/k可采集物品.xlsx
+++ b/Table/Table_xls/NPC-复合/k可采集物品.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24900" windowHeight="10575"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -24,24 +24,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Administrator:
 有随机名字时优先随机名字，没有时读取名称列，读取g怪物随机名称库.xlsx
 </t>
         </r>
@@ -51,24 +39,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Administrator:
 名字前面的前缀，读取g怪物随机名称前缀库.xlsx
 全名=前缀1+前缀2+名称</t>
         </r>
@@ -81,10 +57,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Microsoft:
+          <t xml:space="preserve">Microsoft:
 取奖励表ID</t>
         </r>
       </text>
@@ -96,10 +71,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>admin:
+          <t xml:space="preserve">admin:
   XPDIR_TOP = 0,//朝上
   XPDIR_TOPRIGHT = 1,//右上
   XPDIR_RIGHT = 2,//朝右
@@ -116,11 +90,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>编号</t>
   </si>
   <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>随机名称库</t>
+  </si>
+  <si>
+    <t>前缀1</t>
+  </si>
+  <si>
+    <t>前缀2</t>
+  </si>
+  <si>
     <t>大小比例</t>
   </si>
   <si>
@@ -130,15 +116,38 @@
     <t>小地图显示</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小地图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>npc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>颜色</t>
+    </r>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
     <t>modelID</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
     <t>可否被多人战斗</t>
   </si>
   <si>
@@ -194,7 +203,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>声音</t>
@@ -203,7 +211,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1,</t>
     </r>
@@ -211,7 +219,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>声音</t>
@@ -220,7 +227,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2,</t>
     </r>
@@ -228,7 +235,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>声音</t>
@@ -237,7 +243,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3,</t>
     </r>
@@ -245,7 +251,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>声音</t>
@@ -254,7 +259,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -285,7 +290,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>声音</t>
@@ -294,7 +298,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -304,7 +308,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>声音</t>
@@ -313,7 +316,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -323,7 +326,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>声音</t>
@@ -332,7 +334,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -354,7 +356,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>战斗</t>
@@ -363,7 +364,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -423,60 +424,23 @@
     <t>状态</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小地图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>npc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>颜色</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机名称库</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前缀1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前缀2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>是否点卡服显示</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否点卡服显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -485,39 +449,17 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -527,12 +469,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,48 +629,234 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="23"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="17"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -590,120 +864,336 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -715,7 +1205,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -753,71 +1243,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1035,7 +1525,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
@@ -1044,227 +1535,226 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="9"/>
-    <col min="13" max="13" width="9" style="9"/>
-    <col min="14" max="16" width="9" style="12"/>
-    <col min="17" max="17" width="13.42578125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="9" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
-    <col min="29" max="29" width="9" style="9"/>
-    <col min="30" max="30" width="19.85546875" customWidth="1"/>
-    <col min="31" max="31" width="11.42578125" customWidth="1"/>
-    <col min="32" max="32" width="14.140625" customWidth="1"/>
-    <col min="34" max="34" width="9" style="9"/>
-    <col min="46" max="46" width="9.140625" style="1"/>
-    <col min="47" max="55" width="9.140625" style="10"/>
-    <col min="56" max="56" width="10.7109375" style="10" customWidth="1"/>
-    <col min="57" max="60" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="14.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="13.4285714285714" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5714285714286" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1428571428571" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5714285714286" customWidth="1"/>
+    <col min="23" max="23" width="13.2857142857143" customWidth="1"/>
+    <col min="29" max="29" width="9" style="1"/>
+    <col min="30" max="30" width="19.8571428571429" customWidth="1"/>
+    <col min="31" max="31" width="11.4285714285714" customWidth="1"/>
+    <col min="32" max="32" width="14.1428571428571" customWidth="1"/>
+    <col min="34" max="34" width="9" style="1"/>
+    <col min="46" max="46" width="9.14285714285714" style="3"/>
+    <col min="47" max="55" width="9.14285714285714" style="4"/>
+    <col min="56" max="56" width="10.7142857142857" style="4" customWidth="1"/>
+    <col min="57" max="60" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="24.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="24" spans="1:63">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="BI1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="BJ1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ1" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="BK1" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:63">
-      <c r="A11" s="11" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
